--- a/biology/Botanique/Hornungia_alpina/Hornungia_alpina.xlsx
+++ b/biology/Botanique/Hornungia_alpina/Hornungia_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hornungia alpina, l'hutchinsie des Alpes, ou cresson de chamois, est une espèce de plante herbacée de la famille des Brassicaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante (3 à 8 cm de haut), gazonnante dont les tiges frêles sont feuillées uniquement à la base ; les feuilles sont profondément divisées ; les fleurs présentent quatre pétales blancs disposés en croix. La floraison a lieu de mai à septembre.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Orophyte, la plante vit dans les rocailles, les éboulis sur sol calcareux jusqu'à 3 400 m.
 </t>
@@ -575,13 +591,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymie
-Parmi les nombreux synonymes attribués à cette espèce :
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parmi les nombreux synonymes attribués à cette espèce :
 Hutchinsia alpina (L.) R. Brown
 Pritzelago alpina (L.) Kuntze, 1891
-Lepidium alpinum L., 1756 - basionyme[1].
-Sous-espèces
-Hornungia alpina subsp. auerswaldii
+Lepidium alpinum L., 1756 - basionyme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hornungia_alpina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hornungia_alpina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hornungia alpina subsp. auerswaldii
 Hornungia alpina subsp. brevicaulis
 Hornungia alpina subsp. alpina</t>
         </is>
